--- a/data/Erick GutiérrezT2-2024.xlsx
+++ b/data/Erick GutiérrezT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>85.77562921000001</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -1540,6 +1542,7 @@
         <v>6.129e-05</v>
       </c>
     </row>
+    <row r="65"/>
     <row r="66">
       <c r="D66" s="6" t="inlineStr">
         <is>
@@ -1565,7 +1568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1578,6 +1581,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1585,6 +1590,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1592,6 +1598,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -2013,6 +2020,7 @@
         <v>3.606e-05</v>
       </c>
     </row>
+    <row r="40"/>
     <row r="41">
       <c r="C41" s="6" t="inlineStr">
         <is>
@@ -2038,7 +2046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2051,6 +2059,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -2058,6 +2068,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -2065,6 +2076,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -2226,6 +2238,7 @@
         <v>7e-08</v>
       </c>
     </row>
+    <row r="20"/>
     <row r="21">
       <c r="C21" s="6" t="inlineStr">
         <is>
